--- a/output_inst_info.xlsx
+++ b/output_inst_info.xlsx
@@ -14,17 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+  <si>
+    <t>c_inst_code</t>
+  </si>
+  <si>
+    <t>c_inst_name_hz</t>
+  </si>
   <si>
     <t>c_inst_name_code</t>
   </si>
   <si>
-    <t>c_inst_code</t>
-  </si>
-  <si>
-    <t>c_inst_name_hz</t>
-  </si>
-  <si>
     <t>c_inst_type_code</t>
   </si>
   <si>
@@ -40,16 +40,64 @@
     <t>建初寺</t>
   </si>
   <si>
+    <t>國慶寺</t>
+  </si>
+  <si>
+    <t>南巖寺</t>
+  </si>
+  <si>
+    <t>天童寺</t>
+  </si>
+  <si>
+    <t>平陽寺</t>
+  </si>
+  <si>
+    <t>天寧寺</t>
+  </si>
+  <si>
+    <t>虞山書院</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
     <t>4540</t>
   </si>
   <si>
+    <t>5402</t>
+  </si>
+  <si>
+    <t>5404</t>
+  </si>
+  <si>
+    <t>5405</t>
+  </si>
+  <si>
+    <t>7627</t>
+  </si>
+  <si>
+    <t>5398</t>
+  </si>
+  <si>
+    <t>7569</t>
+  </si>
+  <si>
+    <t>7546</t>
+  </si>
+  <si>
     <t>18417</t>
+  </si>
+  <si>
+    <t>65006</t>
   </si>
 </sst>
 </file>
@@ -407,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,25 +486,186 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>2538</v>
-      </c>
-      <c r="B2">
         <v>3920</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
+      <c r="C2">
+        <v>777</v>
+      </c>
       <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>3921</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C3">
+        <v>2539</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3922</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C4">
+        <v>2540</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>3923</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="C5">
+        <v>328</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>3924</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>328</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>3925</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
+      </c>
+      <c r="C7">
+        <v>2543</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>3926</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>326</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>3927</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>2350</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/output_inst_info.xlsx
+++ b/output_inst_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>c_inst_code</t>
   </si>
@@ -37,64 +37,16 @@
     <t>c_source</t>
   </si>
   <si>
-    <t>建初寺</t>
-  </si>
-  <si>
-    <t>國慶寺</t>
-  </si>
-  <si>
-    <t>南巖寺</t>
-  </si>
-  <si>
-    <t>天童寺</t>
-  </si>
-  <si>
-    <t>平陽寺</t>
-  </si>
-  <si>
-    <t>天寧寺</t>
-  </si>
-  <si>
-    <t>虞山書院</t>
+    <t>泗洲寺</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>4540</t>
-  </si>
-  <si>
-    <t>5402</t>
-  </si>
-  <si>
-    <t>5404</t>
-  </si>
-  <si>
-    <t>5405</t>
-  </si>
-  <si>
-    <t>7627</t>
-  </si>
-  <si>
-    <t>5398</t>
-  </si>
-  <si>
-    <t>7569</t>
-  </si>
-  <si>
-    <t>7546</t>
-  </si>
-  <si>
-    <t>18417</t>
+    <t>7542</t>
   </si>
   <si>
     <t>65006</t>
@@ -455,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -486,186 +438,25 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>3920</v>
+        <v>3927</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>777</v>
+        <v>2545</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>3921</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>2539</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>3922</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>2540</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>3923</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>328</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>3924</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>328</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>3925</v>
-      </c>
-      <c r="B7" t="s">
         <v>11</v>
-      </c>
-      <c r="C7">
-        <v>2543</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>3926</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>326</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>3927</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>2350</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/output_inst_info.xlsx
+++ b/output_inst_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>c_inst_code</t>
   </si>
@@ -37,7 +37,16 @@
     <t>c_source</t>
   </si>
   <si>
-    <t>泗洲寺</t>
+    <t>精嚴寺</t>
+  </si>
+  <si>
+    <t>極樂寺</t>
+  </si>
+  <si>
+    <t>彌勒寺</t>
+  </si>
+  <si>
+    <t>全福寺</t>
   </si>
   <si>
     <t>2</t>
@@ -46,7 +55,16 @@
     <t>19</t>
   </si>
   <si>
-    <t>7542</t>
+    <t>5346</t>
+  </si>
+  <si>
+    <t>7225</t>
+  </si>
+  <si>
+    <t>7241</t>
+  </si>
+  <si>
+    <t>7540</t>
   </si>
   <si>
     <t>65006</t>
@@ -407,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,25 +456,94 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>3927</v>
+        <v>3928</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2545</v>
+        <v>1280</v>
       </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>3929</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C3">
+        <v>157</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3930</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C4">
+        <v>784</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>3931</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="C5">
+        <v>2550</v>
+      </c>
+      <c r="D5" t="s">
         <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/output_inst_info.xlsx
+++ b/output_inst_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>c_inst_code</t>
   </si>
@@ -37,37 +37,19 @@
     <t>c_source</t>
   </si>
   <si>
-    <t>精嚴寺</t>
-  </si>
-  <si>
-    <t>極樂寺</t>
-  </si>
-  <si>
-    <t>彌勒寺</t>
-  </si>
-  <si>
-    <t>全福寺</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>旭山書院</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>5346</t>
-  </si>
-  <si>
-    <t>7225</t>
-  </si>
-  <si>
-    <t>7241</t>
-  </si>
-  <si>
-    <t>7540</t>
-  </si>
-  <si>
-    <t>65006</t>
+    <t>5516</t>
+  </si>
+  <si>
+    <t>65192</t>
   </si>
 </sst>
 </file>
@@ -425,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,94 +438,25 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>3928</v>
+        <v>3932</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1280</v>
+        <v>2552</v>
       </c>
       <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>3929</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>157</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>3930</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>784</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>3931</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>2550</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/output_inst_info.xlsx
+++ b/output_inst_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="41">
   <si>
     <t>c_inst_code</t>
   </si>
@@ -37,19 +37,106 @@
     <t>c_source</t>
   </si>
   <si>
-    <t>旭山書院</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>5516</t>
-  </si>
-  <si>
-    <t>65192</t>
+    <t>天慶禪院</t>
+  </si>
+  <si>
+    <t>崇夏寺</t>
+  </si>
+  <si>
+    <t>華嚴禪院</t>
+  </si>
+  <si>
+    <t>寶雲寺</t>
+  </si>
+  <si>
+    <t>萬固寺</t>
+  </si>
+  <si>
+    <t>香山寺</t>
+  </si>
+  <si>
+    <t>左街廣福禪院</t>
+  </si>
+  <si>
+    <t>休糧禪院</t>
+  </si>
+  <si>
+    <t>報先寺</t>
+  </si>
+  <si>
+    <t>福嚴寺</t>
+  </si>
+  <si>
+    <t>延唐寺</t>
+  </si>
+  <si>
+    <t>崇明寺</t>
+  </si>
+  <si>
+    <t>永安寺</t>
+  </si>
+  <si>
+    <t>天寧萬壽寺</t>
+  </si>
+  <si>
+    <t>崇勝寺</t>
+  </si>
+  <si>
+    <t>福昌寺</t>
+  </si>
+  <si>
+    <t>延慶化城寺</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>100409</t>
+  </si>
+  <si>
+    <t>100658</t>
+  </si>
+  <si>
+    <t>12232</t>
+  </si>
+  <si>
+    <t>11927</t>
+  </si>
+  <si>
+    <t>100561</t>
+  </si>
+  <si>
+    <t>12231</t>
+  </si>
+  <si>
+    <t>100036</t>
+  </si>
+  <si>
+    <t>12688</t>
+  </si>
+  <si>
+    <t>100437</t>
+  </si>
+  <si>
+    <t>11903</t>
+  </si>
+  <si>
+    <t>11902</t>
+  </si>
+  <si>
+    <t>11480</t>
+  </si>
+  <si>
+    <t>64948</t>
+  </si>
+  <si>
+    <t>64847</t>
+  </si>
+  <si>
+    <t>2504</t>
   </si>
 </sst>
 </file>
@@ -407,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,25 +525,393 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>3932</v>
+        <v>3933</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2552</v>
+        <v>2554</v>
       </c>
       <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>3934</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C3">
+        <v>2555</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3935</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C4">
+        <v>2556</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>3936</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="C5">
+        <v>702</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>3937</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
+      </c>
+      <c r="C6">
+        <v>1373</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>3938</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>1626</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>3939</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>2560</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>3940</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>2561</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>3941</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>2562</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>3942</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>112</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>3943</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>773</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>3944</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>728</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>3945</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>1006</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>3946</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>602</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>3947</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>2568</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>3948</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>1242</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>3949</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>2570</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/output_inst_info.xlsx
+++ b/output_inst_info.xlsx
@@ -1,37 +1,99 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+  <si>
+    <t>c_inst_code</t>
+  </si>
+  <si>
+    <t>c_inst_name_hz</t>
+  </si>
+  <si>
+    <t>c_inst_name_code</t>
+  </si>
+  <si>
+    <t>c_inst_type_code</t>
+  </si>
+  <si>
+    <t>c_inst_begin_dy</t>
+  </si>
+  <si>
+    <t>c_inst_addr_id</t>
+  </si>
+  <si>
+    <t>c_source</t>
+  </si>
+  <si>
+    <t>輪臺書院</t>
+  </si>
+  <si>
+    <t>傳巖書院</t>
+  </si>
+  <si>
+    <t>詁經精舍</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>7150</t>
+  </si>
+  <si>
+    <t>7435</t>
+  </si>
+  <si>
+    <t>7601</t>
+  </si>
+  <si>
+    <t>356665</t>
+  </si>
+  <si>
+    <t>356666</t>
+  </si>
+  <si>
+    <t>356667</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +108,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,90 +424,106 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>c_inst_code</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>c_inst_name_hz</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>c_inst_name_code</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>c_inst_type_code</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>c_inst_begin_dy</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>c_inst_addr_id</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>c_source</t>
-        </is>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>3950</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>太乙書院</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2572</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8957</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>6267</t>
-        </is>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>3952</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>2576</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>3953</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>2577</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3954</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>2578</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output_inst_info.xlsx
+++ b/output_inst_info.xlsx
@@ -1,99 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
-  <si>
-    <t>c_inst_code</t>
-  </si>
-  <si>
-    <t>c_inst_name_hz</t>
-  </si>
-  <si>
-    <t>c_inst_name_code</t>
-  </si>
-  <si>
-    <t>c_inst_type_code</t>
-  </si>
-  <si>
-    <t>c_inst_begin_dy</t>
-  </si>
-  <si>
-    <t>c_inst_addr_id</t>
-  </si>
-  <si>
-    <t>c_source</t>
-  </si>
-  <si>
-    <t>輪臺書院</t>
-  </si>
-  <si>
-    <t>傳巖書院</t>
-  </si>
-  <si>
-    <t>詁經精舍</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>7150</t>
-  </si>
-  <si>
-    <t>7435</t>
-  </si>
-  <si>
-    <t>7601</t>
-  </si>
-  <si>
-    <t>356665</t>
-  </si>
-  <si>
-    <t>356666</t>
-  </si>
-  <si>
-    <t>356667</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -108,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -424,106 +420,156 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>c_inst_code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>c_inst_name_hz</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>c_inst_name_code</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>c_inst_type_code</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>c_inst_begin_dy</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>c_inst_addr_id</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>c_source</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" t="n">
         <v>3952</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>輪臺書院</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>2576</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7150</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>38685</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" t="n">
         <v>3953</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>傳巖書院</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>2577</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7435</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>38685</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" t="n">
         <v>3954</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>詁經精舍</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>2578</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7601</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>38685</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/output_inst_info.xlsx
+++ b/output_inst_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,15 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3952</v>
+        <v>3955</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>輪臺書院</t>
+          <t>清谿書院</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2576</v>
+        <v>2580</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -494,26 +494,26 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7150</t>
+          <t>7618</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>38685</t>
+          <t>27890</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3953</v>
+        <v>3956</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>傳巖書院</t>
+          <t>南菁書院</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2577</v>
+        <v>2581</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -527,45 +527,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7435</t>
+          <t>7533</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>38685</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3954</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>詁經精舍</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2578</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7601</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>38685</t>
+          <t>27890</t>
         </is>
       </c>
     </row>

--- a/output_inst_info.xlsx
+++ b/output_inst_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,67 +472,100 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3955</v>
+        <v>3957</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>清谿書院</t>
+          <t>延慶院</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2580</v>
+        <v>2583</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7618</t>
+          <t>12232</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>27890</t>
+          <t>64847</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3956</v>
+        <v>3958</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>南菁書院</t>
+          <t>寶雨院</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2581</v>
+        <v>2584</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7533</t>
+          <t>12232</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>27890</t>
+          <t>64847</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3959</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>勝願寺</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2585</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>12232</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>64847</t>
         </is>
       </c>
     </row>

--- a/output_inst_info.xlsx
+++ b/output_inst_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,100 +472,34 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3957</v>
+        <v>3960</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>延慶院</t>
+          <t>三畏書院</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2583</v>
+        <v>2587</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>12232</t>
+          <t>7539</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>64847</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3958</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>寶雨院</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2584</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>12232</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>64847</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3959</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>勝願寺</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2585</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>12232</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>64847</t>
+          <t>2510</t>
         </is>
       </c>
     </row>

--- a/output_inst_info.xlsx
+++ b/output_inst_info.xlsx
@@ -472,15 +472,15 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3960</v>
+        <v>3961</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>三畏書院</t>
+          <t>五經書院</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2587</v>
+        <v>2589</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -489,17 +489,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7539</t>
+          <t>5878</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2510</t>
+          <t>38685</t>
         </is>
       </c>
     </row>

--- a/output_inst_info.xlsx
+++ b/output_inst_info.xlsx
@@ -472,15 +472,15 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3961</v>
+        <v>3962</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>五經書院</t>
+          <t>蔚文書院</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2589</v>
+        <v>2591</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -489,17 +489,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5878</t>
+          <t>7626</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>38685</t>
+          <t>68002</t>
         </is>
       </c>
     </row>

--- a/output_inst_info.xlsx
+++ b/output_inst_info.xlsx
@@ -472,15 +472,15 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3962</v>
+        <v>3963</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>蔚文書院</t>
+          <t>定惠書院</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2591</v>
+        <v>2593</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -489,12 +489,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7626</t>
+          <t>5576</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">

--- a/output_inst_info.xlsx
+++ b/output_inst_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,15 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3963</v>
+        <v>3964</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>定惠書院</t>
+          <t>紫陽書院</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2593</v>
+        <v>428</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -489,17 +489,50 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5576</t>
+          <t>7538</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>2510</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3965</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>建陽書院</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2596</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7738</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2510</t>
         </is>
       </c>
     </row>

--- a/output_inst_info.xlsx
+++ b/output_inst_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,15 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3964</v>
+        <v>3966</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>紫陽書院</t>
+          <t>南臺書院</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>428</v>
+        <v>2598</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -494,7 +494,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7538</t>
+          <t>8295</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -505,32 +505,65 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3965</v>
+        <v>3967</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>建陽書院</t>
+          <t>長元貞節祠</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2596</v>
+        <v>2599</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7538</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2510</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3968</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>五華書院</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2600</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7738</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7084</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>2510</t>
         </is>

--- a/output_inst_info.xlsx
+++ b/output_inst_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,15 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3966</v>
+        <v>3969</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>南臺書院</t>
+          <t>正誼書院</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2598</v>
+        <v>2602</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -494,7 +494,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8295</t>
+          <t>7538</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -505,15 +505,15 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3967</v>
+        <v>3970</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>長元貞節祠</t>
+          <t>文廟</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2599</v>
+        <v>2514</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -531,39 +531,6 @@
         </is>
       </c>
       <c r="G3" t="inlineStr">
-        <is>
-          <t>2510</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3968</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>五華書院</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2600</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7084</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
         <is>
           <t>2510</t>
         </is>

--- a/output_inst_info.xlsx
+++ b/output_inst_info.xlsx
@@ -472,15 +472,15 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3969</v>
+        <v>3971</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>正誼書院</t>
+          <t>崇本書院</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2602</v>
+        <v>2604</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -494,26 +494,26 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7538</t>
+          <t>7628</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2510</t>
+          <t>4763</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3970</v>
+        <v>3972</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>文廟</t>
+          <t>平政祠</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2514</v>
+        <v>2605</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -527,12 +527,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7538</t>
+          <t>7628</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2510</t>
+          <t>4763</t>
         </is>
       </c>
     </row>

--- a/output_inst_info.xlsx
+++ b/output_inst_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,19 +472,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3971</v>
+        <v>3973</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>崇本書院</t>
+          <t>昭忠祠</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2604</v>
+        <v>2607</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -505,15 +505,15 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3972</v>
+        <v>3974</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>平政祠</t>
+          <t>忠義孝悌祠</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2605</v>
+        <v>2608</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -531,6 +531,171 @@
         </is>
       </c>
       <c r="G3" t="inlineStr">
+        <is>
+          <t>4763</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3975</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>景行書院</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2609</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8671</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4763</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3976</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>錦溪書院</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2610</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7630</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4763</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3977</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>忠義祠</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2611</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7628</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4763</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3978</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>月湖書院</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2612</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7628</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4763</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3979</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>東陽書院</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2613</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7312</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>4763</t>
         </is>

--- a/output_inst_info.xlsx
+++ b/output_inst_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,19 +472,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3973</v>
+        <v>3980</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>昭忠祠</t>
+          <t>蕺山書院</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2607</v>
+        <v>2615</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -498,204 +498,6 @@
         </is>
       </c>
       <c r="G2" t="inlineStr">
-        <is>
-          <t>4763</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3974</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>忠義孝悌祠</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2608</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7628</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>4763</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3975</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>景行書院</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2609</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8671</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>4763</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3976</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>錦溪書院</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2610</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7630</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>4763</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>3977</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>忠義祠</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2611</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7628</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>4763</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3978</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>月湖書院</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2612</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7628</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>4763</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3979</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>東陽書院</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>2613</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>7312</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
         <is>
           <t>4763</t>
         </is>

--- a/output_inst_info.xlsx
+++ b/output_inst_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,15 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3980</v>
+        <v>3981</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>蕺山書院</t>
+          <t>蛟川書院</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2615</v>
+        <v>2617</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -494,10 +494,43 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7628</t>
+          <t>7635</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
+        <is>
+          <t>4763</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3982</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>南浦書院</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2618</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7793</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>4763</t>
         </is>

--- a/output_inst_info.xlsx
+++ b/output_inst_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,15 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3981</v>
+        <v>3999</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>蛟川書院</t>
+          <t>貴陽書院</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2617</v>
+        <v>2633</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -489,50 +489,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7635</t>
+          <t>6567</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4763</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3982</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>南浦書院</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2618</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7793</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>4763</t>
+          <t>39136</t>
         </is>
       </c>
     </row>
